--- a/Assets/Landmarks/Text Files/current/list_bigCityCyberith_ALL.xlsx
+++ b/Assets/Landmarks/Text Files/current/list_bigCityCyberith_ALL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="280" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,1012 +21,1012 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
-    <t>Imagine standing at Book Store, facing Camera Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Camera Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Camera Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Camera Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Camera Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Camera Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Bakery; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Bakery; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Bakery; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Bakery; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Bakery; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Bakery; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Book Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Book Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Book Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Book Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Book Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Book Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Costume Shop; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Costume Shop; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Costume Shop; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Costume Shop; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Costume Shop; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Costume Shop; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Camera Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Camera Store; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Camera Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Camera Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Camera Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Camera Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Ice Cream Parlor; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Ice Cream Parlor; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Ice Cream Parlor; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Ice Cream Parlor; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Ice Cream Parlor; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Ice Cream Parlor; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Costume Shop; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Costume Shop; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Costume Shop; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Costume Shop; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Costume Shop; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Costume Shop; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Gym; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Gym; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Gym; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Gym; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Gym; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Gym; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Ice Cream Parlor; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Ice Cream Parlor; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Ice Cream Parlor; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Ice Cream Parlor; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Ice Cream Parlor; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Ice Cream Parlor; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Bakery; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Bakery; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Bakery; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Bakery; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Bakery; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Bakery; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Book Store; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Book Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Book Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Book Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Book Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Book Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Gym; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Gym; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Gym; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Gym; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Gym; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Gym; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Fast Food Restaurant; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Fast Food Restaurant; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Fast Food Restaurant; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Fast Food Restaurant; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Fast Food Restaurant; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Fast Food Restaurant; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Florist; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Florist; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Florist; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Florist; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Florist; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Florist; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Camera Store; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Camera Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Camera Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Camera Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Camera Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Camera Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Costume Shop; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Costume Shop; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Costume Shop; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Costume Shop; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Costume Shop; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Costume Shop; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Ice Cream Parlor; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Ice Cream Parlor; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Ice Cream Parlor; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Ice Cream Parlor; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Ice Cream Parlor; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Ice Cream Parlor; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Fast Food Restaurant; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Fast Food Restaurant; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Fast Food Restaurant; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Fast Food Restaurant; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Fast Food Restaurant; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Fast Food Restaurant; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Florist; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Florist; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Florist; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Florist; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Florist; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Bakery, facing Florist; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Costume Shop; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Costume Shop; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Costume Shop; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Costume Shop; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Costume Shop; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Costume Shop; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Gym; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Gym; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Gym; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Gym; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Gym; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Gym; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Ice Cream Parlor; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Ice Cream Parlor; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Ice Cream Parlor; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Ice Cream Parlor; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Ice Cream Parlor; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Ice Cream Parlor; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Fast Food Restaurant; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Fast Food Restaurant; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Fast Food Restaurant; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Fast Food Restaurant; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Fast Food Restaurant; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Fast Food Restaurant; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Florist; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Florist; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Florist; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Florist; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Florist; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Book Store, facing Florist; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Bakery; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Bakery; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Bakery; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Bakery; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Bakery; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Bakery; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Gym; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Gym; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Gym; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Gym; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Gym; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Gym; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Ice Cream Parlor; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Ice Cream Parlor; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Ice Cream Parlor; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Ice Cream Parlor; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Ice Cream Parlor; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Ice Cream Parlor; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Fast Food Restaurant; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Fast Food Restaurant; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Fast Food Restaurant; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Fast Food Restaurant; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Fast Food Restaurant; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Fast Food Restaurant; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Florist; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Florist; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Florist; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Florist; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Florist; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Camera Store, facing Florist; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Bakery; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Bakery; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Bakery; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Bakery; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Bakery; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Bakery; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Book Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Book Store; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Book Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Book Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Book Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Book Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Gym; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Gym; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Gym; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Gym; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Gym; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Gym; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Fast Food Restaurant; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Fast Food Restaurant; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Fast Food Restaurant; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Fast Food Restaurant; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Fast Food Restaurant; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Fast Food Restaurant; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Florist; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Florist; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Florist; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Florist; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Florist; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Costume Shop, facing Florist; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Book Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Book Store; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Book Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Book Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Book Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Book Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Camera Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Camera Store; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Camera Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Camera Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Camera Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Camera Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Costume Shop; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Costume Shop; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Costume Shop; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Costume Shop; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Costume Shop; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Costume Shop; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Fast Food Restaurant; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Fast Food Restaurant; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Fast Food Restaurant; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Fast Food Restaurant; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Fast Food Restaurant; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Fast Food Restaurant; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Florist; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Florist; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Florist; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Florist; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Florist; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Gym, facing Florist; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Bakery; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Bakery; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Bakery; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Bakery; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Bakery; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Bakery; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Book Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Book Store; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Book Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Book Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Book Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Book Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Camera Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Camera Store; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Camera Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Camera Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Camera Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Camera Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Fast Food Restaurant; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Fast Food Restaurant; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Fast Food Restaurant; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Fast Food Restaurant; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Fast Food Restaurant; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Fast Food Restaurant; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Florist; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Florist; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Florist; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Florist; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Florist; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Ice Cream Parlor, facing Florist; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Bakery; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Bakery; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Bakery; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Bakery; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Bakery; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Bakery; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Book Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Book Store; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Book Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Book Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Book Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Book Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Camera Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Camera Store; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Camera Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Camera Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Camera Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Camera Store; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Costume Shop; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Costume Shop; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Costume Shop; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Costume Shop; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Costume Shop; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Costume Shop; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Gym; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Gym; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Gym; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Gym; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Gym; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Gym; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Ice Cream Parlor; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Ice Cream Parlor; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Ice Cream Parlor; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Ice Cream Parlor; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Ice Cream Parlor; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Fast Food Restaurant, facing Ice Cream Parlor; point to Florist.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Bakery; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Bakery; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Bakery; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Bakery; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Bakery; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Bakery; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Book Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Book Store; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Book Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Book Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Book Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Book Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Camera Store; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Camera Store; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Camera Store; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Camera Store; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Camera Store; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Camera Store; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Costume Shop; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Costume Shop; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Costume Shop; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Costume Shop; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Costume Shop; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Costume Shop; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Gym; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Gym; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Gym; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Gym; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Gym; point to Ice Cream Parlor.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Gym; point to Fast Food Restaurant.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Ice Cream Parlor; point to Bakery.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Ice Cream Parlor; point to Book Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Ice Cream Parlor; point to Camera Store.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Ice Cream Parlor; point to Costume Shop.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Ice Cream Parlor; point to Gym.</t>
-  </si>
-  <si>
-    <t>Imagine standing at Florist, facing Ice Cream Parlor; point to Fast Food Restaurant.</t>
+    <t>Imagine standing in the Book Store, facing the Camera Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Camera Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Camera Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Camera Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Camera Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Camera Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Bakery; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Bakery; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Bakery; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Bakery; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Bakery; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Bakery; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Book Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Book Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Book Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Book Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Book Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Book Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Costume Shop; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Costume Shop; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Costume Shop; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Costume Shop; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Costume Shop; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Costume Shop; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Camera Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Camera Store; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Camera Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Camera Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Camera Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Camera Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Ice Cream Parlor; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Ice Cream Parlor; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Ice Cream Parlor; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Ice Cream Parlor; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Ice Cream Parlor; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Ice Cream Parlor; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Costume Shop; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Costume Shop; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Costume Shop; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Costume Shop; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Costume Shop; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Costume Shop; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Gym; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Gym; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Gym; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Gym; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Gym; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Gym; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Ice Cream Parlor; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Ice Cream Parlor; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Ice Cream Parlor; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Ice Cream Parlor; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Ice Cream Parlor; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Ice Cream Parlor; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Bakery; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Bakery; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Bakery; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Bakery; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Bakery; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Bakery; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Book Store; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Book Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Book Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Book Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Book Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Book Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Gym; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Gym; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Gym; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Gym; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Gym; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Gym; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Fast Food Restaurant; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Fast Food Restaurant; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Fast Food Restaurant; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Fast Food Restaurant; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Fast Food Restaurant; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Fast Food Restaurant; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Florist; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Florist; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Florist; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Florist; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Florist; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Florist; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Camera Store; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Camera Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Camera Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Camera Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Camera Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Camera Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Costume Shop; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Costume Shop; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Costume Shop; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Costume Shop; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Costume Shop; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Costume Shop; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Ice Cream Parlor; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Ice Cream Parlor; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Ice Cream Parlor; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Ice Cream Parlor; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Ice Cream Parlor; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Ice Cream Parlor; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Fast Food Restaurant; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Fast Food Restaurant; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Fast Food Restaurant; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Fast Food Restaurant; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Fast Food Restaurant; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Fast Food Restaurant; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Florist; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Florist; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Florist; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Florist; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Florist; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Bakery, facing the Florist; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Costume Shop; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Costume Shop; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Costume Shop; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Costume Shop; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Costume Shop; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Costume Shop; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Gym; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Gym; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Gym; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Gym; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Gym; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Gym; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Ice Cream Parlor; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Ice Cream Parlor; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Ice Cream Parlor; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Ice Cream Parlor; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Ice Cream Parlor; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Ice Cream Parlor; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Fast Food Restaurant; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Fast Food Restaurant; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Fast Food Restaurant; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Fast Food Restaurant; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Fast Food Restaurant; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Fast Food Restaurant; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Florist; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Florist; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Florist; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Florist; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Florist; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Book Store, facing the Florist; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Bakery; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Bakery; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Bakery; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Bakery; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Bakery; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Bakery; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Gym; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Gym; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Gym; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Gym; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Gym; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Gym; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Ice Cream Parlor; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Ice Cream Parlor; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Ice Cream Parlor; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Ice Cream Parlor; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Ice Cream Parlor; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Ice Cream Parlor; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Fast Food Restaurant; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Fast Food Restaurant; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Fast Food Restaurant; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Fast Food Restaurant; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Fast Food Restaurant; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Fast Food Restaurant; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Florist; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Florist; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Florist; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Florist; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Florist; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Camera Store, facing the Florist; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Bakery; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Bakery; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Bakery; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Bakery; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Bakery; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Bakery; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Book Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Book Store; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Book Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Book Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Book Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Book Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Gym; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Gym; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Gym; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Gym; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Gym; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Gym; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Fast Food Restaurant; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Fast Food Restaurant; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Fast Food Restaurant; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Fast Food Restaurant; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Fast Food Restaurant; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Fast Food Restaurant; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Florist; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Florist; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Florist; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Florist; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Florist; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Costume Shop, facing the Florist; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Book Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Book Store; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Book Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Book Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Book Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Book Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Camera Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Camera Store; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Camera Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Camera Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Camera Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Camera Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Costume Shop; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Costume Shop; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Costume Shop; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Costume Shop; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Costume Shop; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Costume Shop; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Fast Food Restaurant; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Fast Food Restaurant; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Fast Food Restaurant; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Fast Food Restaurant; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Fast Food Restaurant; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Fast Food Restaurant; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Florist; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Florist; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Florist; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Florist; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Florist; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Gym, facing the Florist; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Bakery; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Bakery; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Bakery; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Bakery; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Bakery; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Bakery; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Book Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Book Store; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Book Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Book Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Book Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Book Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Camera Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Camera Store; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Camera Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Camera Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Camera Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Camera Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Fast Food Restaurant; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Fast Food Restaurant; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Fast Food Restaurant; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Fast Food Restaurant; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Fast Food Restaurant; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Fast Food Restaurant; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Florist; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Florist; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Florist; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Florist; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Florist; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Ice Cream Parlor, facing the Florist; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Bakery; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Bakery; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Bakery; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Bakery; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Bakery; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Bakery; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Book Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Book Store; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Book Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Book Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Book Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Book Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Camera Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Camera Store; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Camera Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Camera Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Camera Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Camera Store; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Costume Shop; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Costume Shop; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Costume Shop; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Costume Shop; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Costume Shop; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Costume Shop; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Gym; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Gym; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Gym; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Gym; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Gym; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Gym; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Ice Cream Parlor; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Ice Cream Parlor; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Ice Cream Parlor; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Ice Cream Parlor; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Ice Cream Parlor; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Fast Food Restaurant, facing the Ice Cream Parlor; point to the Florist.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Bakery; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Bakery; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Bakery; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Bakery; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Bakery; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Bakery; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Book Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Book Store; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Book Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Book Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Book Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Book Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Camera Store; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Camera Store; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Camera Store; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Camera Store; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Camera Store; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Camera Store; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Costume Shop; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Costume Shop; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Costume Shop; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Costume Shop; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Costume Shop; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Costume Shop; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Gym; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Gym; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Gym; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Gym; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Gym; point to the Ice Cream Parlor.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Gym; point to the Fast Food Restaurant.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Ice Cream Parlor; point to the Bakery.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Ice Cream Parlor; point to the Book Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Ice Cream Parlor; point to the Camera Store.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Ice Cream Parlor; point to the Costume Shop.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Ice Cream Parlor; point to the Gym.</t>
+  </si>
+  <si>
+    <t>Imagine standing in the Florist, facing the Ice Cream Parlor; point to the Fast Food Restaurant.</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A671"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A671"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="C684" sqref="C684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
